--- a/trunk/doc/task.xlsx
+++ b/trunk/doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>大牌界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜信息栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I34"/>
+  <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1071,14 +1083,18 @@
       <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="4">
         <v>40256</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="4">
+        <v>40257</v>
+      </c>
+      <c r="F27" s="4">
+        <v>40268</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="3" t="s">
@@ -1094,23 +1110,43 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4">
+        <v>40268</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4">
+        <v>40268</v>
+      </c>
+      <c r="E30" s="4">
+        <v>40269</v>
+      </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4">
+        <v>40268</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
@@ -1134,6 +1170,48 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/doc/task.xlsx
+++ b/trunk/doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>大牌界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,26 @@
   </si>
   <si>
     <t>日志按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1113,21 +1133,25 @@
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>23</v>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D29" s="4">
         <v>40268</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="4">
+        <v>40274</v>
+      </c>
+      <c r="F29" s="4">
+        <v>40275</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D30" s="4">
         <v>40268</v>
@@ -1135,53 +1159,103 @@
       <c r="E30" s="4">
         <v>40269</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="4">
+        <v>40270</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>23</v>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D31" s="4">
         <v>40268</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="4">
+        <v>40271</v>
+      </c>
+      <c r="F31" s="4">
+        <v>40271</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4">
+        <v>40277</v>
+      </c>
+      <c r="E32" s="4">
+        <v>40277</v>
+      </c>
+      <c r="F32" s="4">
+        <v>40278</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4">
+        <v>40281</v>
+      </c>
+      <c r="E33" s="4">
+        <v>40281</v>
+      </c>
+      <c r="F33" s="4">
+        <v>40281</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4">
+        <v>40281</v>
+      </c>
+      <c r="E34" s="4">
+        <v>40281</v>
+      </c>
+      <c r="F34" s="4">
+        <v>40282</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="4">
+        <v>40281</v>
+      </c>
+      <c r="E35" s="4">
+        <v>40283</v>
+      </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="4">
+        <v>40281</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>

--- a/trunk/doc/task.xlsx
+++ b/trunk/doc/task.xlsx
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1235,8 +1235,8 @@
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D35" s="4">
         <v>40281</v>
@@ -1244,7 +1244,9 @@
       <c r="E35" s="4">
         <v>40283</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="4">
+        <v>40284</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="3" t="s">
